--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.120419.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Fall.120419.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1617,12 +1617,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2469,12 +2469,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2931,12 +2931,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3435,12 +3435,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3771,12 +3771,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3939,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4279,12 +4279,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5375,12 +5375,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5627,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6845,12 +6845,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7613,12 +7613,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7655,12 +7655,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8579,12 +8579,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9133,12 +9133,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9847,12 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10057,12 +10057,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10225,12 +10225,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10477,12 +10477,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10519,12 +10519,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10645,12 +10645,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11527,12 +11527,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12207,12 +12207,12 @@
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12417,12 +12417,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12669,12 +12669,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13299,12 +13299,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13425,12 +13425,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13551,12 +13551,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13635,12 +13635,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13761,12 +13761,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13887,12 +13887,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14307,12 +14307,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14979,12 +14979,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15021,12 +15021,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15063,12 +15063,12 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15861,12 +15861,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16155,12 +16155,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
